--- a/lab1_1/SKO_table.xlsx
+++ b/lab1_1/SKO_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2160"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Тип движения</t>
   </si>
@@ -153,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,12 +161,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A7" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,117 +476,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
